--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A341C8E-82C9-4065-B968-E7955281B42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06098741-8007-4F59-89D2-2DC57CF854AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="133">
   <si>
     <t>Roll no</t>
   </si>
@@ -87,41 +87,350 @@
     <t>Graduation Stream</t>
   </si>
   <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
     <t>Cooch Behar Government Engineering College</t>
   </si>
   <si>
     <t>Cognizant</t>
   </si>
   <si>
-    <t>Marketing, Consulting, Analytics, Operations</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>LinkedIn URL</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/ayushg24</t>
-  </si>
-  <si>
-    <t>NIT Bhopal</t>
-  </si>
-  <si>
-    <t>Infosys</t>
-  </si>
-  <si>
-    <t>Sales, Consulting, Analytics, Operations, HR</t>
+    <t>akashgm24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>Akash G M</t>
+  </si>
+  <si>
+    <t>Abhinav Siddharth</t>
+  </si>
+  <si>
+    <t>Abhishek Agrawal</t>
+  </si>
+  <si>
+    <t>Abhishek Kumar</t>
+  </si>
+  <si>
+    <t>Aman Dubey</t>
+  </si>
+  <si>
+    <t>Amogh S Bolar</t>
+  </si>
+  <si>
+    <t>Aniket Prakash Bhagat</t>
+  </si>
+  <si>
+    <t>Arohi Singh</t>
+  </si>
+  <si>
+    <t>Aslam MU</t>
+  </si>
+  <si>
+    <t>Bhavesh Verma</t>
+  </si>
+  <si>
+    <t>Ganesh Bhausaheb Bodakhe</t>
+  </si>
+  <si>
+    <t>Charvi Singhal</t>
+  </si>
+  <si>
+    <t>Deepak Purohit</t>
+  </si>
+  <si>
+    <t>Devesh Sanyal</t>
+  </si>
+  <si>
+    <t>abhinavs24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>abhisheka24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>abhishek24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>amand24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>amoghsb24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>aniketpb24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>arohis24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>aslammu24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>bhaveshv24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>bodakheg24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>charvis24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>pdeepak24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>deveshs24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>sidabhi918@gmail.com</t>
+  </si>
+  <si>
+    <t>abhishek.agrag@gmail.com</t>
+  </si>
+  <si>
+    <t>k.abhishek997188@gmail.com</t>
+  </si>
+  <si>
+    <t>akashmahesh100@gmail.com</t>
+  </si>
+  <si>
+    <t>amankdubey98@gmail.com</t>
+  </si>
+  <si>
+    <t>aniketbhagat59@gmail.com</t>
+  </si>
+  <si>
+    <t>connectarohi@gmail.com</t>
+  </si>
+  <si>
+    <t>aslammu19@gmail.com</t>
+  </si>
+  <si>
+    <t>bhaveshvermajhs19@gmail.com</t>
+  </si>
+  <si>
+    <t>s.charvi2000@gmail.com</t>
+  </si>
+  <si>
+    <t>deepakpurohit004@gmail.com</t>
+  </si>
+  <si>
+    <t>deveshsanyal2000@gmail.com</t>
+  </si>
+  <si>
+    <t>B.E.</t>
+  </si>
+  <si>
+    <t>B.Pharma</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>Petroleum Engineering</t>
+  </si>
+  <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Computer Science Engineering</t>
+  </si>
+  <si>
+    <t>Electronics and Communication Engineering</t>
+  </si>
+  <si>
+    <t>Kamla Nehru Institute of Technology</t>
+  </si>
+  <si>
+    <t>Madhav Institute of Technology &amp; Science</t>
+  </si>
+  <si>
+    <t>UPES Dehradun</t>
+  </si>
+  <si>
+    <t>R.V. College of Engineering</t>
+  </si>
+  <si>
+    <t>APJ Abdul Kalam Technical University , Lucknow</t>
+  </si>
+  <si>
+    <t>R.V College of Engineering</t>
+  </si>
+  <si>
+    <t>Bajaj Institute of technology</t>
+  </si>
+  <si>
+    <t>LNCT, Bhopal</t>
+  </si>
+  <si>
+    <t>A. P. J. Abdul Kalam Technological University</t>
+  </si>
+  <si>
+    <t>Shri Ramdeobaba College of Engineering and Management, Nagpur</t>
+  </si>
+  <si>
+    <t>Bharati Vidyapeeth Collage of Pharmacy Kolhapur</t>
+  </si>
+  <si>
+    <t>Inderprastha Engineering College</t>
+  </si>
+  <si>
+    <t>NSUT East Campus (Formerly AIACTR), Delhi</t>
+  </si>
+  <si>
+    <t>Birla Institute of Technology, MESRA</t>
+  </si>
+  <si>
+    <t>Infosys Limited</t>
+  </si>
+  <si>
+    <t>Cognizant Technology Solutions</t>
+  </si>
+  <si>
+    <t>Adecco India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>IQVIA RDS</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Almond Oct</t>
+  </si>
+  <si>
+    <t>Veyo Facades &amp; Fenestrations Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Osttra</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>TATA Steel Downstream Products Limited</t>
+  </si>
+  <si>
+    <t>Marketing, Consulting, Operations, Finance</t>
+  </si>
+  <si>
+    <t>Marketing, Analytics, Consulting, Finance</t>
+  </si>
+  <si>
+    <t>Marketing, Analytics</t>
+  </si>
+  <si>
+    <t>Analytics, Consulting, Operations, Finance</t>
+  </si>
+  <si>
+    <t>Marketing, Analytics, Consulting, Operations, Finance</t>
+  </si>
+  <si>
+    <t>Analytics, Consulting</t>
+  </si>
+  <si>
+    <t>Marketing, Analytics, Consulting, Operations, HR, Finance</t>
+  </si>
+  <si>
+    <t>Marketing, Analytics, Consulting, Operations</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abhinavs24/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/abhisheka24</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abhishekk24</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akashgm24/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/amand24</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/amoghsb24/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aniketpb24</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ayushg24/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pdeepak24</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deveshs24/</t>
+  </si>
+  <si>
+    <t>Aanchal Nikhra</t>
+  </si>
+  <si>
+    <t>aanchal24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>B.A.</t>
+  </si>
+  <si>
+    <t>Economics &amp; Mathematics</t>
+  </si>
+  <si>
+    <t>Lady Shri Ram College for Women</t>
+  </si>
+  <si>
+    <t>Marketing, Operations</t>
+  </si>
+  <si>
+    <t>Mahabir Industries</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aanchaln24/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/arohis24</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aslammu24/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bhaveshv24/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bodakheg24/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/charvis24/</t>
+  </si>
+  <si>
+    <t>Nazhar Bekinalkar</t>
+  </si>
+  <si>
+    <t>mnazhar24@iitk.ac.in</t>
+  </si>
+  <si>
+    <t>nazhar3103@gmail.com</t>
+  </si>
+  <si>
+    <t>VIIT</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mnazhar24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,16 +454,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -162,20 +524,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,184 +1068,994 @@
     <col min="7" max="7" width="20.21875" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
     <col min="13" max="14" width="10.5546875" customWidth="1"/>
     <col min="15" max="15" width="10.109375" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="28" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="32" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="8">
+        <v>241250001</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="30">
+        <v>26</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="30">
+        <v>28</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="30">
+        <v>95.4</v>
+      </c>
+      <c r="M2" s="30">
+        <v>96.14</v>
+      </c>
+      <c r="N2" s="31">
+        <v>7.45</v>
+      </c>
+      <c r="O2" s="30">
+        <v>2019</v>
+      </c>
+      <c r="Q2" s="30">
+        <v>8.4</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="8">
+        <v>241250002</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="4">
+        <v>91.2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>87</v>
+      </c>
+      <c r="N3" s="4">
+        <v>81.3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2023</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="4">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="11">
+        <v>241250003</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="11">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="5">
+        <v>37</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="5">
+        <v>87.4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>81</v>
+      </c>
+      <c r="N4" s="5">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="O4" s="5">
+        <v>2021</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="5">
+        <v>7.83</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14">
+        <v>241250004</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="14">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="6">
+        <v>25</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>82.33</v>
+      </c>
+      <c r="N5" s="6">
+        <v>73.5</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="6">
+        <v>9</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11">
+        <v>241250005</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="11">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="5">
+        <v>85.5</v>
+      </c>
+      <c r="M6" s="5">
+        <v>78.8</v>
+      </c>
+      <c r="N6" s="5">
+        <v>64.2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="5">
+        <v>8.4949999999999992</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="14">
+        <v>241250006</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="14">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="6">
+        <v>26</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="6">
+        <v>95</v>
+      </c>
+      <c r="M7" s="6">
+        <v>88.2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>82.2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>2020</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="6">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="11">
+        <v>241250007</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="11">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="5">
+        <v>23</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="5">
+        <v>95</v>
+      </c>
+      <c r="M8" s="5">
+        <v>95.33</v>
+      </c>
+      <c r="N8" s="5">
+        <v>81.5</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="5">
+        <v>9.33</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="14">
+        <v>241250008</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="14">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="6">
+        <v>33</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="6">
+        <v>86</v>
+      </c>
+      <c r="M9" s="6">
+        <v>73.540000000000006</v>
+      </c>
+      <c r="N9" s="6">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11">
+        <v>241250009</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="11">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="5">
+        <v>28</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="5">
+        <v>89</v>
+      </c>
+      <c r="M10" s="5">
+        <v>78</v>
+      </c>
+      <c r="N10" s="5">
+        <v>80</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2020</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="R10" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="14">
+        <v>241250011</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="14">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="6">
+        <v>23</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="6">
+        <v>83.6</v>
+      </c>
+      <c r="M11" s="6">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="N11" s="6">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2020</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="6">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11">
+        <v>241250012</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="11">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="5">
+        <v>22</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="5">
+        <v>83.6</v>
+      </c>
+      <c r="M12" s="5">
+        <v>83.4</v>
+      </c>
+      <c r="N12" s="5">
+        <v>83.2</v>
+      </c>
+      <c r="O12" s="5">
+        <v>2022</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="5">
+        <v>8.35</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14">
+        <v>241250013</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="14">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="33">
+        <v>81.7</v>
+      </c>
+      <c r="M13" s="6">
+        <v>57.8</v>
+      </c>
+      <c r="N13" s="33">
+        <v>82.9</v>
+      </c>
+      <c r="O13" s="6">
+        <v>2022</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="6">
+        <v>7.65</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="11">
+        <v>241250014</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="11">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="5">
+        <v>88</v>
+      </c>
+      <c r="M14" s="23">
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="N14" s="5">
+        <v>80.37</v>
+      </c>
+      <c r="O14" s="5">
+        <v>2024</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="5">
+        <v>8</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="14">
+        <v>241250015</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="14">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="6">
+        <v>28</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>84.8</v>
+      </c>
+      <c r="N15" s="6">
+        <v>90.2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>2022</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="11">
+        <v>241250016</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="11">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="5">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="J16" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="5">
+        <v>83.5</v>
+      </c>
+      <c r="M16" s="5">
+        <v>83</v>
+      </c>
+      <c r="N16" s="5">
+        <v>86.3</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2021</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="5">
+        <v>8.39</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="14">
+        <v>241250017</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="14">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="6">
+        <v>24</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="6">
+        <v>93.1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>84.8</v>
+      </c>
+      <c r="N17" s="6">
+        <v>84.3</v>
+      </c>
+      <c r="O17" s="6">
+        <v>2022</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="6">
+        <v>7.75</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="36" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="34">
+        <v>241250031</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="34">
+        <v>25</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="34">
+        <v>15</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="34">
+        <v>88.4</v>
+      </c>
+      <c r="M18" s="34">
+        <v>84.15</v>
+      </c>
+      <c r="N18" s="35"/>
+      <c r="O18" s="34">
+        <v>2022</v>
+      </c>
+      <c r="Q18" s="34">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>241250012</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2">
-        <v>83.6</v>
-      </c>
-      <c r="M2">
-        <v>83.4</v>
-      </c>
-      <c r="N2">
-        <v>83.2</v>
-      </c>
-      <c r="O2">
-        <v>2022</v>
-      </c>
-      <c r="Q2">
-        <v>8.35</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>241250012</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3">
-        <v>90.2</v>
-      </c>
-      <c r="M3">
-        <v>88.9</v>
-      </c>
-      <c r="N3">
-        <v>86.5</v>
-      </c>
-      <c r="O3">
-        <v>2022</v>
-      </c>
-      <c r="Q3">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>26</v>
+      <c r="R18" s="37" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4E1F165F-9C36-4235-8954-BE2459022FF5}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{C7E449D5-0265-43FD-9F20-C6F3E243E043}"/>
-    <hyperlink ref="R2" r:id="rId3" xr:uid="{DCB7E554-2E73-42F4-9273-CA9BBB6BC4FB}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{1F63E9AF-CDB1-4306-B341-120BC863E528}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{AFA5D0BC-207E-451A-8C1F-F443784980FD}"/>
-    <hyperlink ref="R3" r:id="rId6" xr:uid="{8D72422C-9D1E-4B59-9576-018B2D820AE1}"/>
+    <hyperlink ref="R3" r:id="rId1" xr:uid="{8B7ECA6E-0D42-40D0-BF91-D843E89EF983}"/>
+    <hyperlink ref="R4" r:id="rId2" display="http://www.linkedin.com/in/abhisheka24" xr:uid="{BF17520D-D4F2-4C16-9FFC-4124EF0C104C}"/>
+    <hyperlink ref="R5" r:id="rId3" xr:uid="{5D08C971-0816-4900-B277-579648C0EFB6}"/>
+    <hyperlink ref="R6" r:id="rId4" xr:uid="{03619BB4-70CE-48C3-B682-0621E5B977C1}"/>
+    <hyperlink ref="R7" r:id="rId5" xr:uid="{FAE12F0D-9240-469A-A9DC-AE2AF50FFE97}"/>
+    <hyperlink ref="R8" r:id="rId6" xr:uid="{BE55C69B-2D9A-495B-9816-EFDDDF95ED8D}"/>
+    <hyperlink ref="R9" r:id="rId7" xr:uid="{F9AA8EDF-04EF-4656-9F9F-605A5FB21FA5}"/>
+    <hyperlink ref="R10" r:id="rId8" xr:uid="{669C2E97-9632-4DED-B478-23B07F4B43C0}"/>
+    <hyperlink ref="R11" r:id="rId9" xr:uid="{0127201D-AF2C-41B9-B647-4B7C6F845C67}"/>
+    <hyperlink ref="R12" r:id="rId10" xr:uid="{C1A24160-8FA6-45A5-B498-2A3AA745571D}"/>
+    <hyperlink ref="R13" r:id="rId11" xr:uid="{9A8A10C3-95F1-4D77-BA54-26C1A373A577}"/>
+    <hyperlink ref="R14" r:id="rId12" xr:uid="{C57290BF-0BD9-4E16-BEB7-73DA2B23001B}"/>
+    <hyperlink ref="R15" r:id="rId13" xr:uid="{BB67844A-95AB-4252-BEA2-B2B6716588D3}"/>
+    <hyperlink ref="R16" r:id="rId14" xr:uid="{3BD0CB26-9B87-4799-AA79-B7A6F219E1DA}"/>
+    <hyperlink ref="R17" r:id="rId15" xr:uid="{0CAAF269-6166-4285-BE61-D131968A554A}"/>
+    <hyperlink ref="R2" r:id="rId16" xr:uid="{7FBDE08C-5EBE-4C42-BB07-CF0708EF4C12}"/>
+    <hyperlink ref="R18" r:id="rId17" xr:uid="{AC6D5F78-1160-4688-A338-96F89B80768B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
 </worksheet>
 </file>
--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06098741-8007-4F59-89D2-2DC57CF854AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEEEA27-8558-4C91-AD04-9F0E9834FE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2024,7 +2024,9 @@
       <c r="M18" s="34">
         <v>84.15</v>
       </c>
-      <c r="N18" s="35"/>
+      <c r="N18" s="35">
+        <v>78.14</v>
+      </c>
       <c r="O18" s="34">
         <v>2022</v>
       </c>

--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\Desktop\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEEEA27-8558-4C91-AD04-9F0E9834FE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CDBEB3-AA83-462A-911A-39FEE1C053A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
